--- a/assets/disciplinas/LOQ4219.xlsx
+++ b/assets/disciplinas/LOQ4219.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>a) Fornecer ao aluno uma visão integrada do processo de desenvolvimento de produto, desde as etapas iniciais de geração da ideia, avaliação econômica e desenvolvimento do conceito do produto até a preparação da fábrica, produção e lançamento do produto. b) Apresentar como os principais conhecimentos da formação de engenheiro de produção podem ser aplicados no processo de desenvolvimento de produto. c) Propiciar uma experiência prática de projeto.</t>
+    <t>5701460 - Antonio Iacono</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5701460 - Antonio Iacono</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1. Conceito de processo de negócio e modelo de referência; 2. Desenvolvimento de produto como um processo: Fases principais do processo de desenvolvimento de produto; 3. Definição e conceitos básicos de gerenciamento de projetos; 4. Planejamento estratégico do produto; 5. Planejamento do Projeto; 6. Projeto Informacional; 7. Projeto Conceitual; 8. Projeto Detalhado; 9. Lançamento e Pós-Desenvolvimento. 10. Empreendedorismo e processo de desenvolvimento de produto.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Visão geral do processo de desenvolvimento de produto. Conceito de processo de negócio. Modelo de referência e desenvolvimento de produto como um processo. Fases principais do processo de desenvolvimento de produto. Definição e conceitos básicos de gerenciamento de projetos. 2. Apresentação de um modelo de referência para desenvolvimento de produto. Descrição do modelo de referência. Importância e uso do modelo de referência. Principais características do modelo de referência para desenvolvimento de produto. 3. Apresentação das fases do processo de desenvolvimento de produto. Nesta parte são apresentados os conceitos e metodologias principais de cada fase do desenvolvimento de produto. 3.1. Planejamento estratégico de produtos. Conteúdo sobre a importância e como preparar a estratégia de produto, realizar o gerenciamento da carteira de projetos e elaborar a Minuta do Projeto. 3.2. Planejamento do projeto. Conteúdo sobre técnicas de planejamento do projeto e análise de viabilidade econômica. 3.3. Projeto informacional. Conceitos gerais de pesquisa de mercado, tipos de fontes de dados para pesquisa de mercado, diferenças entre as fontes de dados, formas de utilização de pesquisas e aprofundamento no tipo de pesquisa baseado em enquete. 3.4. Projeto conceitual. Apresentam-se os diversos métodos criativos para concepção, tais como Diagrama de funções, Matriz Morfológica e Matriz de Pugh, e demonstra-se com exemplos como utilizá-los de forma a gerar e escolher uma concepção de produto robusta.3.5. Projeto detalhado e preparação da produção. Apresenta-se o objetivo e resumo das atividades realizadas nas duas fases. No pós-desenvolvimento discute-se especialmente os aspectos relacionados com o meio ambiente, como descarte e reuso de peças do produto. 4. Empreendedorismo e processo de desenvolvimento de produto. O ambiente de inovação e o processo de desenvolvimento de produtos: empresas nascentes de base tecnológica, startups e aceleradoras.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Provas e trabalho</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>M = (0,6P + 0,4T)P = Prova escritaT = Trabalho sobre desenvolvimento de produtosM = Média de aproveitamento do aluno</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>MF = (0,5 M + 0,5 R)M = Média de aproveitamento do aluno, antes da recuperaçãoR = Nota de uma prova de recuperaçãoMF = nota final de aproveitamento, após a recuperaçãoAprovação com média final de aproveitamento maior ou igual a 5,0.A recuperação deverá consistir de uma prova escrita englobando a matéria toda do semestre.Terá direito à prova de recuperação aqueles alunos reprovados com nota acima de 3,0 e frequência mínima de 70%.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>ROZENFELD, H.; FORCELLINI, F.A.; AMARAL, D.C.; TOLEDO, J. A.; SILVA, S.L.; ALLIPRANDINI, D.H.; SCALICE, R.K. Gestão de desenvolvimento de produtos: uma referência para a melhoria do processo. São Paulo: Saraiva, 2006. 542p. CHENG, L.C. QFD: desdobramento da função qualidade na gestão de desenvolvimento de produtos. São Paulo: Edgard Blücher, 2007. DENIS, R. C. Uma introdução à história do design. São Paulo: Edgard Blücher., 2000. MALHOTRA, N.K. Pesquisa de marketing: uma orientação aplicada. Porto Alegre: Bookman, 2006. PAHL,G.; BEITZ,W.; FELDHUSEN,J.;GROTE,K. Projeto na engenharia. São Paulo: Edgard Blucher, 2005.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -668,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4219.xlsx
+++ b/assets/disciplinas/LOQ4219.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>a) Fornecer ao aluno uma visão integrada do processo de desenvolvimento de produto, desde as etapas iniciais de geração da ideia, avaliação econômica e desenvolvimento do conceito do produto até a preparação da fábrica, produção e lançamento do produto. b) Apresentar como os principais conhecimentos da formação de engenheiro de produção podem ser aplicados no processo de desenvolvimento de produto. c) Propiciar uma experiência prática de projeto.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>a) Provide the student an integrated vision of the product development process, from initial idea generation steps, economic evaluation and development of the concept of the product to the factory, production preparation and release of the product. b) Present as the main knowledge of the formation of production engineer can be applied in the product development process. c) Provide practical experience of project.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5701460 - Antonio Iacono</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>a) Provide the student an integrated vision of the product development process, from initial idea generation steps, economic evaluation and development of the concept of the product to the factory, production preparation and release of the product. b) Present as the main knowledge of the formation of production engineer can be applied in the product development process. c) Provide practical experience of project.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1. Conceito de processo de negócio e modelo de referência; 2. Desenvolvimento de produto como um processo: Fases principais do processo de desenvolvimento de produto; 3. Definição e conceitos básicos de gerenciamento de projetos; 4. Planejamento estratégico do produto; 5. Planejamento do Projeto; 6. Projeto Informacional; 7. Projeto Conceitual; 8. Projeto Detalhado; 9. Lançamento e Pós-Desenvolvimento. 10. Empreendedorismo e processo de desenvolvimento de produto.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Visão geral do processo de desenvolvimento de produto. Conceito de processo de negócio. Modelo de referência e desenvolvimento de produto como um processo. Fases principais do processo de desenvolvimento de produto. Definição e conceitos básicos de gerenciamento de projetos. 2. Apresentação de um modelo de referência para desenvolvimento de produto. Descrição do modelo de referência. Importância e uso do modelo de referência. Principais características do modelo de referência para desenvolvimento de produto. 3. Apresentação das fases do processo de desenvolvimento de produto. Nesta parte são apresentados os conceitos e metodologias principais de cada fase do desenvolvimento de produto. 3.1. Planejamento estratégico de produtos. Conteúdo sobre a importância e como preparar a estratégia de produto, realizar o gerenciamento da carteira de projetos e elaborar a Minuta do Projeto. 3.2. Planejamento do projeto. Conteúdo sobre técnicas de planejamento do projeto e análise de viabilidade econômica. 3.3. Projeto informacional. Conceitos gerais de pesquisa de mercado, tipos de fontes de dados para pesquisa de mercado, diferenças entre as fontes de dados, formas de utilização de pesquisas e aprofundamento no tipo de pesquisa baseado em enquete. 3.4. Projeto conceitual. Apresentam-se os diversos métodos criativos para concepção, tais como Diagrama de funções, Matriz Morfológica e Matriz de Pugh, e demonstra-se com exemplos como utilizá-los de forma a gerar e escolher uma concepção de produto robusta.3.5. Projeto detalhado e preparação da produção. Apresenta-se o objetivo e resumo das atividades realizadas nas duas fases. No pós-desenvolvimento discute-se especialmente os aspectos relacionados com o meio ambiente, como descarte e reuso de peças do produto. 4. Empreendedorismo e processo de desenvolvimento de produto. O ambiente de inovação e o processo de desenvolvimento de produtos: empresas nascentes de base tecnológica, startups e aceleradoras.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Provas e trabalho</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Provas e trabalho</t>
+    <t>M = (0,6P + 0,4T)P = Prova escritaT = Trabalho sobre desenvolvimento de produtosM = Média de aproveitamento do aluno</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>M = (0,6P + 0,4T)P = Prova escritaT = Trabalho sobre desenvolvimento de produtosM = Média de aproveitamento do aluno</t>
+    <t>MF = (0,5 M + 0,5 R)M = Média de aproveitamento do aluno, antes da recuperaçãoR = Nota de uma prova de recuperaçãoMF = nota final de aproveitamento, após a recuperaçãoAprovação com média final de aproveitamento maior ou igual a 5,0.A recuperação deverá consistir de uma prova escrita englobando a matéria toda do semestre.Terá direito à prova de recuperação aqueles alunos reprovados com nota acima de 3,0 e frequência mínima de 70%.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>MF = (0,5 M + 0,5 R)M = Média de aproveitamento do aluno, antes da recuperaçãoR = Nota de uma prova de recuperaçãoMF = nota final de aproveitamento, após a recuperaçãoAprovação com média final de aproveitamento maior ou igual a 5,0.A recuperação deverá consistir de uma prova escrita englobando a matéria toda do semestre.Terá direito à prova de recuperação aqueles alunos reprovados com nota acima de 3,0 e frequência mínima de 70%.</t>
+    <t>ROZENFELD, H.; FORCELLINI, F.A.; AMARAL, D.C.; TOLEDO, J. A.; SILVA, S.L.; ALLIPRANDINI, D.H.; SCALICE, R.K. Gestão de desenvolvimento de produtos: uma referência para a melhoria do processo. São Paulo: Saraiva, 2006. 542p. CHENG, L.C. QFD: desdobramento da função qualidade na gestão de desenvolvimento de produtos. São Paulo: Edgard Blücher, 2007. DENIS, R. C. Uma introdução à história do design. São Paulo: Edgard Blücher., 2000. MALHOTRA, N.K. Pesquisa de marketing: uma orientação aplicada. Porto Alegre: Bookman, 2006. PAHL,G.; BEITZ,W.; FELDHUSEN,J.;GROTE,K. Projeto na engenharia. São Paulo: Edgard Blucher, 2005.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +627,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +668,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
